--- a/Documents/Table_List/08_StageEnemy_Table.xlsx
+++ b/Documents/Table_List/08_StageEnemy_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\github\DefensiveDungeon\Documents\Table_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimmk\Desktop\Github Desktop\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70A07173-1AE0-46E8-8F77-41708755F6AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF76DC4-1FE4-4CCB-86EE-707566FDEEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5355" yWindow="2160" windowWidth="21600" windowHeight="11385" xr2:uid="{93646DBE-5D61-4ADC-ABAD-25A28B629864}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{93646DBE-5D61-4ADC-ABAD-25A28B629864}"/>
   </bookViews>
   <sheets>
     <sheet name="StageEnemy_Table" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>[Monster_Table] 참조</t>
+          <t>[Enemy_Table] 참조</t>
         </r>
       </text>
     </comment>
@@ -1927,14 +1927,14 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2253,66 +2253,66 @@
   <dimension ref="B2:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="2.25" customWidth="1"/>
-    <col min="2" max="2" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.19921875" customWidth="1"/>
+    <col min="2" max="2" width="4.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.125" customWidth="1"/>
+    <col min="11" max="11" width="36.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="10" t="s">

--- a/Documents/Table_List/08_StageEnemy_Table.xlsx
+++ b/Documents/Table_List/08_StageEnemy_Table.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Documents\GitHub\DefensiveDungeon\Documents\Table_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\github\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFA1593-7951-4232-B119-EAECA704CF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFAEF42-52D5-4CC3-867F-E924A4AE93BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{93646DBE-5D61-4ADC-ABAD-25A28B629864}"/>
   </bookViews>
   <sheets>
     <sheet name="StageEnemy_Table" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">StageEnemy_Table!$B$5:$K$5</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2254,7 +2257,10 @@
   <dimension ref="B2:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3335,6 +3341,7 @@
       <c r="B37" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="B5:K5" xr:uid="{64A6FB2A-E19B-4E43-B710-96FBA0DE8382}"/>
   <mergeCells count="10">
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>

--- a/Documents/Table_List/08_StageEnemy_Table.xlsx
+++ b/Documents/Table_List/08_StageEnemy_Table.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\github\DefensiveDungeon\Documents\Table_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Documents\GitHub\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFAEF42-52D5-4CC3-867F-E924A4AE93BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D7FE5B-9BCD-4D08-A9EB-78EF68CDB5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{93646DBE-5D61-4ADC-ABAD-25A28B629864}"/>
+    <workbookView xWindow="1845" yWindow="3060" windowWidth="21600" windowHeight="11385" xr2:uid="{93646DBE-5D61-4ADC-ABAD-25A28B629864}"/>
   </bookViews>
   <sheets>
     <sheet name="StageEnemy_Table" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">StageEnemy_Table!$B$5:$K$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">StageEnemy_Table!$A$1:$K$65</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -77,10 +78,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="87">
-  <si>
-    <r>
-      <t>1-</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="143">
+  <si>
+    <r>
+      <t>20</t>
     </r>
     <r>
       <rPr>
@@ -90,7 +91,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>보스</t>
+      <t>일</t>
     </r>
     <r>
       <rPr>
@@ -109,17 +110,16 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>스테이지</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-StageBattle113</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1-</t>
+      <t>발표까지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -129,6 +129,364 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
+      <t>막판보스</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>CreateSpeed</t>
+  </si>
+  <si>
+    <t>AppearSpeed</t>
+  </si>
+  <si>
+    <t>Emeny_Code</t>
+  </si>
+  <si>
+    <t>Create_num</t>
+  </si>
+  <si>
+    <t>SponPosition</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Name_EN</t>
+  </si>
+  <si>
+    <t>Name_KR</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>비고</t>
+  </si>
+  <si>
+    <t>몬스터 생성 속도</t>
+  </si>
+  <si>
+    <t>몬스터 등장 속도</t>
+  </si>
+  <si>
+    <t>몬스터</t>
+  </si>
+  <si>
+    <t>몬스터 생성 수</t>
+  </si>
+  <si>
+    <t>몬스터 스폰 위치</t>
+  </si>
+  <si>
+    <t>코드</t>
+  </si>
+  <si>
+    <t>이름(영)</t>
+  </si>
+  <si>
+    <t>이름(한)</t>
+  </si>
+  <si>
+    <t>번호</t>
+  </si>
+  <si>
+    <t>1-스테이지 전투011</t>
+  </si>
+  <si>
+    <t>1-StageBattle011</t>
+  </si>
+  <si>
+    <t>1-스테이지 전투021</t>
+  </si>
+  <si>
+    <t>1-StageBattle021</t>
+  </si>
+  <si>
+    <t>1-스테이지 전투022</t>
+  </si>
+  <si>
+    <t>1-StageBattle022</t>
+  </si>
+  <si>
+    <t>1-스테이지 전투031</t>
+  </si>
+  <si>
+    <t>1-StageBattle031</t>
+  </si>
+  <si>
+    <t>1-스테이지 전투032</t>
+  </si>
+  <si>
+    <t>1-StageBattle032</t>
+  </si>
+  <si>
+    <t>1-스테이지 전투041</t>
+  </si>
+  <si>
+    <t>1-StageBattle041</t>
+  </si>
+  <si>
+    <t>1-스테이지 전투042</t>
+  </si>
+  <si>
+    <t>1-StageBattle042</t>
+  </si>
+  <si>
+    <t>1-스테이지 전투051</t>
+  </si>
+  <si>
+    <t>1-StageBattle051</t>
+  </si>
+  <si>
+    <t>1-스테이지 전투052</t>
+  </si>
+  <si>
+    <t>1-StageBattle052</t>
+  </si>
+  <si>
+    <t>1-스테이지 전투053</t>
+  </si>
+  <si>
+    <t>1-StageBattle053</t>
+  </si>
+  <si>
+    <t>1-스테이지 전투061</t>
+  </si>
+  <si>
+    <t>1-StageBattle061</t>
+  </si>
+  <si>
+    <t>1-스테이지 전투062</t>
+  </si>
+  <si>
+    <t>1-StageBattle062</t>
+  </si>
+  <si>
+    <t>1-스테이지 전투063</t>
+  </si>
+  <si>
+    <t>1-StageBattle063</t>
+  </si>
+  <si>
+    <t>1-스테이지 전투071</t>
+  </si>
+  <si>
+    <t>1-StageBattle071</t>
+  </si>
+  <si>
+    <t>1-스테이지 전투072</t>
+  </si>
+  <si>
+    <t>1-StageBattle072</t>
+  </si>
+  <si>
+    <t>1-스테이지 전투073</t>
+  </si>
+  <si>
+    <t>1-StageBattle073</t>
+  </si>
+  <si>
+    <t>1-스테이지 전투074</t>
+  </si>
+  <si>
+    <t>1-StageBattle074</t>
+  </si>
+  <si>
+    <t>1-스테이지 전투081</t>
+  </si>
+  <si>
+    <t>1-StageBattle081</t>
+  </si>
+  <si>
+    <t>1-스테이지 전투082</t>
+  </si>
+  <si>
+    <t>1-StageBattle082</t>
+  </si>
+  <si>
+    <t>1-스테이지 전투083</t>
+  </si>
+  <si>
+    <t>1-StageBattle083</t>
+  </si>
+  <si>
+    <t>1-스테이지 전투091</t>
+  </si>
+  <si>
+    <t>1-StageBattle091</t>
+  </si>
+  <si>
+    <t>1-스테이지 전투092</t>
+  </si>
+  <si>
+    <t>1-StageBattle092</t>
+  </si>
+  <si>
+    <t>1-스테이지 전투093</t>
+  </si>
+  <si>
+    <t>1-StageBattle093</t>
+  </si>
+  <si>
+    <t>1-스테이지 전투094</t>
+  </si>
+  <si>
+    <t>1-StageBattle094</t>
+  </si>
+  <si>
+    <t>1-스테이지 전투095</t>
+  </si>
+  <si>
+    <t>1-StageBattle095</t>
+  </si>
+  <si>
+    <t>1-스테이지 전투101</t>
+  </si>
+  <si>
+    <t>1-StageBattle101</t>
+  </si>
+  <si>
+    <t>1-스테이지 전투102</t>
+  </si>
+  <si>
+    <t>1-StageBattle102</t>
+  </si>
+  <si>
+    <t>1-스테이지 전투111</t>
+  </si>
+  <si>
+    <t>1-StageBattle111</t>
+  </si>
+  <si>
+    <t>1-스테이지 전투112</t>
+  </si>
+  <si>
+    <t>1-StageBattle112</t>
+  </si>
+  <si>
+    <t>1-스테이지 전투113</t>
+  </si>
+  <si>
+    <t>1-StageBattle113</t>
+  </si>
+  <si>
+    <t>1-스테이지 전투121</t>
+  </si>
+  <si>
+    <t>1-StageBattle121</t>
+  </si>
+  <si>
+    <t>1-StageBattle122</t>
+  </si>
+  <si>
+    <t>1-StageBattle123</t>
+  </si>
+  <si>
+    <t>1-StageBattle131</t>
+  </si>
+  <si>
+    <t>1-StageBattle132</t>
+  </si>
+  <si>
+    <t>1-StageBattle133</t>
+  </si>
+  <si>
+    <t>1-StageBattle141</t>
+  </si>
+  <si>
+    <t>1-StageBattle142</t>
+  </si>
+  <si>
+    <t>1-StageBattle143</t>
+  </si>
+  <si>
+    <t>1-StageBattle151</t>
+  </si>
+  <si>
+    <t>1-StageBattle152</t>
+  </si>
+  <si>
+    <t>1-StageBattle153</t>
+  </si>
+  <si>
+    <t>1-StageBattle161</t>
+  </si>
+  <si>
+    <t>1-StageBattle162</t>
+  </si>
+  <si>
+    <t>1-StageBattle163</t>
+  </si>
+  <si>
+    <t>1-StageBattle171</t>
+  </si>
+  <si>
+    <t>1-StageBattle172</t>
+  </si>
+  <si>
+    <t>1-StageBattle173</t>
+  </si>
+  <si>
+    <t>1-StageBattle181</t>
+  </si>
+  <si>
+    <t>1-StageBattle182</t>
+  </si>
+  <si>
+    <t>1-StageBattle183</t>
+  </si>
+  <si>
+    <t>1-StageBattle191</t>
+  </si>
+  <si>
+    <t>1-StageBattle192</t>
+  </si>
+  <si>
+    <t>1-StageBattle193</t>
+  </si>
+  <si>
+    <t>1-StageBattle201</t>
+  </si>
+  <si>
+    <t>1-StageBattle202</t>
+  </si>
+  <si>
+    <t>1-StageBattle203</t>
+  </si>
+  <si>
+    <t>1-StageBattle204</t>
+  </si>
+  <si>
+    <t>Boss_Stage1</t>
+  </si>
+  <si>
+    <r>
+      <t>1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
       <t>스테이지</t>
     </r>
     <r>
@@ -144,8 +502,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>전투</t>
@@ -157,13 +515,8 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>113</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-StageBattle112</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+      <t>122</t>
+    </r>
   </si>
   <si>
     <r>
@@ -173,8 +526,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>스테이지</t>
@@ -192,8 +545,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>전투</t>
@@ -205,23 +558,22 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>112</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일</t>
+      <t>123</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스테이지</t>
     </r>
     <r>
       <rPr>
@@ -236,11 +588,35 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>발표까지</t>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전투</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>131</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스테이지</t>
     </r>
     <r>
       <rPr>
@@ -255,17 +631,21 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>막판보스</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-StageBattle111</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전투</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>132</t>
+    </r>
   </si>
   <si>
     <r>
@@ -275,8 +655,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>스테이지</t>
@@ -294,8 +674,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>전투</t>
@@ -307,13 +687,8 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>111</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-StageBattle102</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+      <t>133</t>
+    </r>
   </si>
   <si>
     <r>
@@ -323,8 +698,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>스테이지</t>
@@ -342,8 +717,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>전투</t>
@@ -355,23 +730,8 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>102</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>1-StageBattle101</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+      <t>141</t>
+    </r>
   </si>
   <si>
     <r>
@@ -381,8 +741,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>스테이지</t>
@@ -400,8 +760,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>전투</t>
@@ -413,13 +773,8 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>101</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-StageBattle095</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+      <t>142</t>
+    </r>
   </si>
   <si>
     <r>
@@ -429,8 +784,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>스테이지</t>
@@ -448,8 +803,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>전투</t>
@@ -461,13 +816,8 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>095</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-StageBattle094</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+      <t>143</t>
+    </r>
   </si>
   <si>
     <r>
@@ -477,8 +827,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>스테이지</t>
@@ -496,8 +846,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>전투</t>
@@ -509,13 +859,8 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>094</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-StageBattle093</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+      <t>151</t>
+    </r>
   </si>
   <si>
     <r>
@@ -525,8 +870,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>스테이지</t>
@@ -544,8 +889,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>전투</t>
@@ -557,13 +902,8 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>093</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-StageBattle092</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+      <t>152</t>
+    </r>
   </si>
   <si>
     <r>
@@ -573,8 +913,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>스테이지</t>
@@ -592,8 +932,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>전투</t>
@@ -605,13 +945,8 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>092</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-StageBattle091</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+      <t>153</t>
+    </r>
   </si>
   <si>
     <r>
@@ -621,8 +956,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>스테이지</t>
@@ -640,8 +975,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>전투</t>
@@ -653,13 +988,8 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>091</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-StageBattle083</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+      <t>161</t>
+    </r>
   </si>
   <si>
     <r>
@@ -669,8 +999,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>스테이지</t>
@@ -688,8 +1018,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>전투</t>
@@ -701,13 +1031,8 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>083</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-StageBattle082</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+      <t>162</t>
+    </r>
   </si>
   <si>
     <r>
@@ -717,8 +1042,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>스테이지</t>
@@ -736,8 +1061,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>전투</t>
@@ -749,13 +1074,8 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>082</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-StageBattle081</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+      <t>163</t>
+    </r>
   </si>
   <si>
     <r>
@@ -765,8 +1085,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>스테이지</t>
@@ -784,8 +1104,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>전투</t>
@@ -797,13 +1117,8 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>081</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-StageBattle074</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+      <t>171</t>
+    </r>
   </si>
   <si>
     <r>
@@ -813,8 +1128,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>스테이지</t>
@@ -832,8 +1147,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>전투</t>
@@ -845,13 +1160,8 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>074</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-StageBattle073</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+      <t>172</t>
+    </r>
   </si>
   <si>
     <r>
@@ -861,8 +1171,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>스테이지</t>
@@ -880,8 +1190,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>전투</t>
@@ -893,13 +1203,8 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>073</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-StageBattle072</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+      <t>173</t>
+    </r>
   </si>
   <si>
     <r>
@@ -909,8 +1214,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>스테이지</t>
@@ -928,8 +1233,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>전투</t>
@@ -941,13 +1246,8 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>072</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-StageBattle071</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+      <t>181</t>
+    </r>
   </si>
   <si>
     <r>
@@ -957,8 +1257,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>스테이지</t>
@@ -976,8 +1276,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>전투</t>
@@ -989,13 +1289,8 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>071</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-StageBattle063</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+      <t>182</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1005,8 +1300,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>스테이지</t>
@@ -1024,8 +1319,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>전투</t>
@@ -1037,13 +1332,8 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>063</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-StageBattle062</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+      <t>183</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1053,8 +1343,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>스테이지</t>
@@ -1072,8 +1362,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>전투</t>
@@ -1085,13 +1375,8 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>062</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-StageBattle061</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+      <t>191</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1101,8 +1386,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>스테이지</t>
@@ -1120,8 +1405,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>전투</t>
@@ -1133,16 +1418,8 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>061</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>1-StageBattle053</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+      <t>192</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1152,8 +1429,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>스테이지</t>
@@ -1171,8 +1448,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>전투</t>
@@ -1184,13 +1461,8 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>053</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-StageBattle052</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+      <t>193</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1200,8 +1472,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>스테이지</t>
@@ -1219,8 +1491,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>전투</t>
@@ -1232,23 +1504,8 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>052</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>1-StageBattle051</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+      <t>201</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1258,8 +1515,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>스테이지</t>
@@ -1277,8 +1534,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>전투</t>
@@ -1290,13 +1547,8 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>051</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-StageBattle042</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+      <t>202</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1306,8 +1558,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>스테이지</t>
@@ -1325,8 +1577,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>전투</t>
@@ -1338,13 +1590,8 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>042</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-StageBattle041</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+      <t>203</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1354,8 +1601,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>스테이지</t>
@@ -1373,8 +1620,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>전투</t>
@@ -1386,13 +1633,8 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>041</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-StageBattle032</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+      <t>204</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1402,313 +1644,38 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>스테이지</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전투</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>032</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-StageBattle031</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스테이지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전투</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>031</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-StageBattle022</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스테이지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전투</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>022</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-StageBattle021</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스테이지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전투</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>021</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-StageBattle011</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스테이지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전투</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>011</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>Component</t>
-  </si>
-  <si>
-    <t>CreateSpeed</t>
-  </si>
-  <si>
-    <t>AppearSpeed</t>
-  </si>
-  <si>
-    <t>Emeny_Code</t>
-  </si>
-  <si>
-    <t>Create_num</t>
-  </si>
-  <si>
-    <t>SponPosition</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Name_EN</t>
-  </si>
-  <si>
-    <t>Name_KR</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>비고</t>
-  </si>
-  <si>
-    <t>몬스터 생성 속도</t>
-  </si>
-  <si>
-    <t>몬스터 등장 속도</t>
-  </si>
-  <si>
-    <t>몬스터</t>
-  </si>
-  <si>
-    <t>몬스터 생성 수</t>
-  </si>
-  <si>
-    <t>몬스터 스폰 위치</t>
-  </si>
-  <si>
-    <t>코드</t>
-  </si>
-  <si>
-    <t>이름(영)</t>
-  </si>
-  <si>
-    <t>이름(한)</t>
-  </si>
-  <si>
-    <t>번호</t>
-  </si>
-  <si>
-    <t>Boss_Stage1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1744,11 +1711,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color theme="0"/>
@@ -1769,6 +1731,26 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1897,7 +1879,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1931,13 +1913,16 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2254,20 +2239,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A6FB2A-E19B-4E43-B710-96FBA0DE8382}">
-  <dimension ref="B2:K37"/>
+  <dimension ref="B2:K64"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
+      <selection pane="bottomRight" activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="2.25" customWidth="1"/>
     <col min="2" max="2" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
@@ -2279,110 +2264,110 @@
   <sheetData>
     <row r="2" spans="2:11">
       <c r="B2" s="12" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="13"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="11"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="10" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="9" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:11">
@@ -2390,10 +2375,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2">
         <v>410001</v>
@@ -2402,10 +2387,10 @@
         <v>3</v>
       </c>
       <c r="G6" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H6" s="2">
-        <v>200011</v>
+        <v>200029</v>
       </c>
       <c r="I6" s="3">
         <v>2</v>
@@ -2414,7 +2399,7 @@
         <v>0.5</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -2422,10 +2407,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2">
         <v>410002</v>
@@ -2437,7 +2422,7 @@
         <v>15</v>
       </c>
       <c r="H7" s="2">
-        <v>200011</v>
+        <v>200030</v>
       </c>
       <c r="I7" s="3">
         <v>2</v>
@@ -2446,7 +2431,7 @@
         <v>0.5</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -2454,10 +2439,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2">
         <v>410002</v>
@@ -2469,7 +2454,7 @@
         <v>15</v>
       </c>
       <c r="H8" s="2">
-        <v>200012</v>
+        <v>200030</v>
       </c>
       <c r="I8" s="3">
         <v>10</v>
@@ -2478,7 +2463,7 @@
         <v>0.5</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:11">
@@ -2486,10 +2471,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="E9" s="2">
         <v>410003</v>
@@ -2501,7 +2486,7 @@
         <v>15</v>
       </c>
       <c r="H9" s="2">
-        <v>200014</v>
+        <v>200031</v>
       </c>
       <c r="I9" s="3">
         <v>2</v>
@@ -2510,7 +2495,7 @@
         <v>0.5</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -2518,10 +2503,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E10" s="2">
         <v>410003</v>
@@ -2533,7 +2518,7 @@
         <v>20</v>
       </c>
       <c r="H10" s="2">
-        <v>200012</v>
+        <v>200031</v>
       </c>
       <c r="I10" s="3">
         <v>11</v>
@@ -2542,7 +2527,7 @@
         <v>0.5</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:11">
@@ -2550,10 +2535,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E11" s="2">
         <v>410004</v>
@@ -2565,7 +2550,7 @@
         <v>20</v>
       </c>
       <c r="H11" s="2">
-        <v>200013</v>
+        <v>200032</v>
       </c>
       <c r="I11" s="3">
         <v>2</v>
@@ -2574,7 +2559,7 @@
         <v>0.5</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:11">
@@ -2582,10 +2567,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2">
         <v>410004</v>
@@ -2597,7 +2582,7 @@
         <v>20</v>
       </c>
       <c r="H12" s="2">
-        <v>200015</v>
+        <v>200032</v>
       </c>
       <c r="I12" s="3">
         <v>11</v>
@@ -2606,7 +2591,7 @@
         <v>0.5</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:11">
@@ -2614,10 +2599,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E13" s="2">
         <v>410005</v>
@@ -2629,7 +2614,7 @@
         <v>10</v>
       </c>
       <c r="H13" s="2">
-        <v>200011</v>
+        <v>200033</v>
       </c>
       <c r="I13" s="3">
         <v>2</v>
@@ -2638,7 +2623,7 @@
         <v>0.5</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:11">
@@ -2646,10 +2631,10 @@
         <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E14" s="2">
         <v>410005</v>
@@ -2661,7 +2646,7 @@
         <v>15</v>
       </c>
       <c r="H14" s="2">
-        <v>200015</v>
+        <v>200033</v>
       </c>
       <c r="I14" s="3">
         <v>10</v>
@@ -2670,7 +2655,7 @@
         <v>0.5</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -2678,10 +2663,10 @@
         <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="E15" s="2">
         <v>410005</v>
@@ -2693,7 +2678,7 @@
         <v>20</v>
       </c>
       <c r="H15" s="2">
-        <v>200016</v>
+        <v>200034</v>
       </c>
       <c r="I15" s="3">
         <v>12</v>
@@ -2702,7 +2687,7 @@
         <v>0.5</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:11">
@@ -2710,10 +2695,10 @@
         <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E16" s="2">
         <v>410006</v>
@@ -2725,7 +2710,7 @@
         <v>15</v>
       </c>
       <c r="H16" s="8">
-        <v>200011</v>
+        <v>200034</v>
       </c>
       <c r="I16" s="3">
         <v>2</v>
@@ -2740,10 +2725,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E17" s="2">
         <v>410006</v>
@@ -2755,7 +2740,7 @@
         <v>15</v>
       </c>
       <c r="H17" s="8">
-        <v>200014</v>
+        <v>200035</v>
       </c>
       <c r="I17" s="3">
         <v>6</v>
@@ -2770,10 +2755,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E18" s="2">
         <v>410006</v>
@@ -2785,7 +2770,7 @@
         <v>15</v>
       </c>
       <c r="H18" s="8">
-        <v>200016</v>
+        <v>200035</v>
       </c>
       <c r="I18" s="3">
         <v>10</v>
@@ -2800,10 +2785,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E19" s="2">
         <v>410007</v>
@@ -2815,7 +2800,7 @@
         <v>20</v>
       </c>
       <c r="H19" s="8">
-        <v>200015</v>
+        <v>200036</v>
       </c>
       <c r="I19" s="3">
         <v>2</v>
@@ -2830,10 +2815,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="E20" s="2">
         <v>410007</v>
@@ -2845,7 +2830,7 @@
         <v>20</v>
       </c>
       <c r="H20" s="8">
-        <v>200012</v>
+        <v>200036</v>
       </c>
       <c r="I20" s="3">
         <v>6</v>
@@ -2860,10 +2845,10 @@
         <v>16</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E21" s="2">
         <v>410007</v>
@@ -2875,7 +2860,7 @@
         <v>10</v>
       </c>
       <c r="H21" s="8">
-        <v>200016</v>
+        <v>200036</v>
       </c>
       <c r="I21" s="3">
         <v>10</v>
@@ -2890,10 +2875,10 @@
         <v>17</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="E22" s="2">
         <v>410007</v>
@@ -2905,7 +2890,7 @@
         <v>10</v>
       </c>
       <c r="H22" s="8">
-        <v>200013</v>
+        <v>200036</v>
       </c>
       <c r="I22" s="3">
         <v>14</v>
@@ -2920,10 +2905,10 @@
         <v>18</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="E23" s="2">
         <v>410008</v>
@@ -2935,7 +2920,7 @@
         <v>20</v>
       </c>
       <c r="H23" s="8">
-        <v>200016</v>
+        <v>200037</v>
       </c>
       <c r="I23" s="3">
         <v>2</v>
@@ -2950,10 +2935,10 @@
         <v>19</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="E24" s="2">
         <v>410008</v>
@@ -2965,7 +2950,7 @@
         <v>20</v>
       </c>
       <c r="H24" s="8">
-        <v>200012</v>
+        <v>200037</v>
       </c>
       <c r="I24" s="3">
         <v>4</v>
@@ -2980,10 +2965,10 @@
         <v>20</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="E25" s="2">
         <v>410008</v>
@@ -2995,7 +2980,7 @@
         <v>20</v>
       </c>
       <c r="H25" s="8">
-        <v>200013</v>
+        <v>200037</v>
       </c>
       <c r="I25" s="3">
         <v>8</v>
@@ -3010,10 +2995,10 @@
         <v>21</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="E26" s="2">
         <v>410009</v>
@@ -3025,7 +3010,7 @@
         <v>20</v>
       </c>
       <c r="H26" s="8">
-        <v>200012</v>
+        <v>200038</v>
       </c>
       <c r="I26" s="3">
         <v>2</v>
@@ -3040,10 +3025,10 @@
         <v>22</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="E27" s="2">
         <v>410009</v>
@@ -3055,7 +3040,7 @@
         <v>3</v>
       </c>
       <c r="H27" s="8">
-        <v>200001</v>
+        <v>200038</v>
       </c>
       <c r="I27" s="3">
         <v>8</v>
@@ -3070,10 +3055,10 @@
         <v>23</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="E28" s="2">
         <v>410009</v>
@@ -3085,7 +3070,7 @@
         <v>5</v>
       </c>
       <c r="H28" s="8">
-        <v>200005</v>
+        <v>200038</v>
       </c>
       <c r="I28" s="3">
         <v>6</v>
@@ -3100,10 +3085,10 @@
         <v>24</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="E29" s="2">
         <v>410009</v>
@@ -3115,7 +3100,7 @@
         <v>20</v>
       </c>
       <c r="H29" s="8">
-        <v>200013</v>
+        <v>200038</v>
       </c>
       <c r="I29" s="3">
         <v>9</v>
@@ -3130,10 +3115,10 @@
         <v>25</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="E30" s="2">
         <v>410009</v>
@@ -3145,7 +3130,7 @@
         <v>10</v>
       </c>
       <c r="H30" s="8">
-        <v>200015</v>
+        <v>200038</v>
       </c>
       <c r="I30" s="3">
         <v>12</v>
@@ -3160,10 +3145,10 @@
         <v>26</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="E31" s="2">
         <v>410010</v>
@@ -3172,10 +3157,10 @@
         <v>3</v>
       </c>
       <c r="G31" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H31" s="8">
-        <v>200017</v>
+        <v>200039</v>
       </c>
       <c r="I31" s="3">
         <v>2</v>
@@ -3190,22 +3175,22 @@
         <v>27</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="E32" s="2">
         <v>410010</v>
       </c>
       <c r="F32" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G32" s="2">
         <v>15</v>
       </c>
       <c r="H32" s="8">
-        <v>200019</v>
+        <v>200039</v>
       </c>
       <c r="I32" s="3">
         <v>8</v>
@@ -3220,22 +3205,22 @@
         <v>28</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="E33" s="7">
         <v>410011</v>
       </c>
       <c r="F33" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G33" s="7">
         <v>15</v>
       </c>
       <c r="H33" s="6">
-        <v>200008</v>
+        <v>200040</v>
       </c>
       <c r="I33" s="5">
         <v>2</v>
@@ -3244,7 +3229,7 @@
         <v>0.5</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:11">
@@ -3252,10 +3237,10 @@
         <v>29</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="E34" s="7">
         <v>410011</v>
@@ -3267,10 +3252,10 @@
         <v>15</v>
       </c>
       <c r="H34" s="6">
-        <v>200008</v>
+        <v>200040</v>
       </c>
       <c r="I34" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J34" s="5">
         <v>0.5</v>
@@ -3282,10 +3267,10 @@
         <v>30</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="E35" s="7">
         <v>410011</v>
@@ -3294,13 +3279,13 @@
         <v>3</v>
       </c>
       <c r="G35" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H35" s="6">
-        <v>200008</v>
+        <v>200040</v>
       </c>
       <c r="I35" s="5">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J35" s="5">
         <v>0.5</v>
@@ -3312,22 +3297,22 @@
         <v>31</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>86</v>
       </c>
       <c r="E36" s="2">
-        <v>410101</v>
+        <v>410012</v>
       </c>
       <c r="F36" s="2">
         <v>3</v>
       </c>
       <c r="G36" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H36" s="2">
-        <v>200001</v>
+        <v>200041</v>
       </c>
       <c r="I36" s="3">
         <v>2</v>
@@ -3339,6 +3324,787 @@
     </row>
     <row r="37" spans="2:11">
       <c r="B37" s="1"/>
+      <c r="C37" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="2">
+        <v>410012</v>
+      </c>
+      <c r="F37" s="2">
+        <v>2</v>
+      </c>
+      <c r="G37" s="2">
+        <v>10</v>
+      </c>
+      <c r="H37" s="2">
+        <v>200041</v>
+      </c>
+      <c r="I37" s="2">
+        <v>8</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K37" s="13"/>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38" s="13"/>
+      <c r="C38" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="2">
+        <v>410012</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2">
+        <v>20</v>
+      </c>
+      <c r="H38" s="2">
+        <v>200041</v>
+      </c>
+      <c r="I38" s="2">
+        <v>12</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K38" s="13"/>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39" s="13"/>
+      <c r="C39" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" s="2">
+        <v>410013</v>
+      </c>
+      <c r="F39" s="2">
+        <v>3</v>
+      </c>
+      <c r="G39" s="2">
+        <v>30</v>
+      </c>
+      <c r="H39" s="2">
+        <v>200042</v>
+      </c>
+      <c r="I39" s="2">
+        <v>2</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K39" s="13"/>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40" s="13"/>
+      <c r="C40" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E40" s="2">
+        <v>410013</v>
+      </c>
+      <c r="F40" s="2">
+        <v>4</v>
+      </c>
+      <c r="G40" s="2">
+        <v>15</v>
+      </c>
+      <c r="H40" s="2">
+        <v>200042</v>
+      </c>
+      <c r="I40" s="2">
+        <v>8</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K40" s="13"/>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41" s="13"/>
+      <c r="C41" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" s="2">
+        <v>410013</v>
+      </c>
+      <c r="F41" s="2">
+        <v>2</v>
+      </c>
+      <c r="G41" s="2">
+        <v>20</v>
+      </c>
+      <c r="H41" s="2">
+        <v>200042</v>
+      </c>
+      <c r="I41" s="2">
+        <v>12</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K41" s="13"/>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" s="13"/>
+      <c r="C42" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="2">
+        <v>410014</v>
+      </c>
+      <c r="F42" s="2">
+        <v>3</v>
+      </c>
+      <c r="G42" s="2">
+        <v>30</v>
+      </c>
+      <c r="H42" s="2">
+        <v>200043</v>
+      </c>
+      <c r="I42" s="2">
+        <v>2</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K42" s="13"/>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43" s="13"/>
+      <c r="C43" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" s="2">
+        <v>410014</v>
+      </c>
+      <c r="F43" s="2">
+        <v>4</v>
+      </c>
+      <c r="G43" s="2">
+        <v>15</v>
+      </c>
+      <c r="H43" s="2">
+        <v>200043</v>
+      </c>
+      <c r="I43" s="2">
+        <v>8</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K43" s="13"/>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44" s="13"/>
+      <c r="C44" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" s="2">
+        <v>410014</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2">
+        <v>15</v>
+      </c>
+      <c r="H44" s="2">
+        <v>200043</v>
+      </c>
+      <c r="I44" s="2">
+        <v>12</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K44" s="13"/>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45" s="13"/>
+      <c r="C45" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E45" s="2">
+        <v>410015</v>
+      </c>
+      <c r="F45" s="2">
+        <v>3</v>
+      </c>
+      <c r="G45" s="2">
+        <v>25</v>
+      </c>
+      <c r="H45" s="2">
+        <v>200044</v>
+      </c>
+      <c r="I45" s="2">
+        <v>2</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K45" s="13"/>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46" s="13"/>
+      <c r="C46" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E46" s="2">
+        <v>410015</v>
+      </c>
+      <c r="F46" s="2">
+        <v>2</v>
+      </c>
+      <c r="G46" s="2">
+        <v>15</v>
+      </c>
+      <c r="H46" s="2">
+        <v>200044</v>
+      </c>
+      <c r="I46" s="2">
+        <v>8</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K46" s="13"/>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47" s="13"/>
+      <c r="C47" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E47" s="2">
+        <v>410015</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2">
+        <v>15</v>
+      </c>
+      <c r="H47" s="2">
+        <v>200044</v>
+      </c>
+      <c r="I47" s="2">
+        <v>12</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K47" s="13"/>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" s="13"/>
+      <c r="C48" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E48" s="2">
+        <v>410016</v>
+      </c>
+      <c r="F48" s="2">
+        <v>3</v>
+      </c>
+      <c r="G48" s="2">
+        <v>25</v>
+      </c>
+      <c r="H48" s="2">
+        <v>200045</v>
+      </c>
+      <c r="I48" s="2">
+        <v>2</v>
+      </c>
+      <c r="J48" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K48" s="13"/>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" s="13"/>
+      <c r="C49" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E49" s="2">
+        <v>410016</v>
+      </c>
+      <c r="F49" s="2">
+        <v>4</v>
+      </c>
+      <c r="G49" s="2">
+        <v>10</v>
+      </c>
+      <c r="H49" s="2">
+        <v>200045</v>
+      </c>
+      <c r="I49" s="2">
+        <v>6</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K49" s="13"/>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" s="13"/>
+      <c r="C50" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E50" s="2">
+        <v>410016</v>
+      </c>
+      <c r="F50" s="2">
+        <v>1</v>
+      </c>
+      <c r="G50" s="2">
+        <v>20</v>
+      </c>
+      <c r="H50" s="2">
+        <v>200045</v>
+      </c>
+      <c r="I50" s="2">
+        <v>10</v>
+      </c>
+      <c r="J50" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K50" s="13"/>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51" s="13"/>
+      <c r="C51" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E51" s="2">
+        <v>410017</v>
+      </c>
+      <c r="F51" s="2">
+        <v>3</v>
+      </c>
+      <c r="G51" s="2">
+        <v>25</v>
+      </c>
+      <c r="H51" s="2">
+        <v>200046</v>
+      </c>
+      <c r="I51" s="2">
+        <v>2</v>
+      </c>
+      <c r="J51" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K51" s="13"/>
+    </row>
+    <row r="52" spans="2:11">
+      <c r="B52" s="13"/>
+      <c r="C52" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E52" s="2">
+        <v>410017</v>
+      </c>
+      <c r="F52" s="2">
+        <v>2</v>
+      </c>
+      <c r="G52" s="2">
+        <v>15</v>
+      </c>
+      <c r="H52" s="2">
+        <v>200046</v>
+      </c>
+      <c r="I52" s="2">
+        <v>8</v>
+      </c>
+      <c r="J52" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K52" s="13"/>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="B53" s="13"/>
+      <c r="C53" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E53" s="2">
+        <v>410017</v>
+      </c>
+      <c r="F53" s="2">
+        <v>4</v>
+      </c>
+      <c r="G53" s="2">
+        <v>15</v>
+      </c>
+      <c r="H53" s="2">
+        <v>200046</v>
+      </c>
+      <c r="I53" s="2">
+        <v>12</v>
+      </c>
+      <c r="J53" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K53" s="13"/>
+    </row>
+    <row r="54" spans="2:11">
+      <c r="B54" s="13"/>
+      <c r="C54" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E54" s="2">
+        <v>410018</v>
+      </c>
+      <c r="F54" s="2">
+        <v>3</v>
+      </c>
+      <c r="G54" s="2">
+        <v>30</v>
+      </c>
+      <c r="H54" s="2">
+        <v>200047</v>
+      </c>
+      <c r="I54" s="2">
+        <v>2</v>
+      </c>
+      <c r="J54" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K54" s="13"/>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="B55" s="13"/>
+      <c r="C55" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E55" s="2">
+        <v>410018</v>
+      </c>
+      <c r="F55" s="2">
+        <v>1</v>
+      </c>
+      <c r="G55" s="2">
+        <v>15</v>
+      </c>
+      <c r="H55" s="2">
+        <v>200047</v>
+      </c>
+      <c r="I55" s="2">
+        <v>8</v>
+      </c>
+      <c r="J55" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K55" s="13"/>
+    </row>
+    <row r="56" spans="2:11">
+      <c r="B56" s="13"/>
+      <c r="C56" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E56" s="2">
+        <v>410018</v>
+      </c>
+      <c r="F56" s="2">
+        <v>2</v>
+      </c>
+      <c r="G56" s="2">
+        <v>15</v>
+      </c>
+      <c r="H56" s="2">
+        <v>200047</v>
+      </c>
+      <c r="I56" s="2">
+        <v>14</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K56" s="13"/>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="B57" s="13"/>
+      <c r="C57" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E57" s="2">
+        <v>410019</v>
+      </c>
+      <c r="F57" s="2">
+        <v>3</v>
+      </c>
+      <c r="G57" s="2">
+        <v>30</v>
+      </c>
+      <c r="H57" s="2">
+        <v>200048</v>
+      </c>
+      <c r="I57" s="2">
+        <v>2</v>
+      </c>
+      <c r="J57" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K57" s="13"/>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58" s="13"/>
+      <c r="C58" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E58" s="2">
+        <v>410019</v>
+      </c>
+      <c r="F58" s="2">
+        <v>4</v>
+      </c>
+      <c r="G58" s="2">
+        <v>20</v>
+      </c>
+      <c r="H58" s="2">
+        <v>200048</v>
+      </c>
+      <c r="I58" s="2">
+        <v>6</v>
+      </c>
+      <c r="J58" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K58" s="13"/>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="B59" s="13"/>
+      <c r="C59" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E59" s="2">
+        <v>410019</v>
+      </c>
+      <c r="F59" s="2">
+        <v>1</v>
+      </c>
+      <c r="G59" s="2">
+        <v>20</v>
+      </c>
+      <c r="H59" s="2">
+        <v>200048</v>
+      </c>
+      <c r="I59" s="2">
+        <v>10</v>
+      </c>
+      <c r="J59" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K59" s="13"/>
+    </row>
+    <row r="60" spans="2:11">
+      <c r="B60" s="13"/>
+      <c r="C60" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E60" s="2">
+        <v>410020</v>
+      </c>
+      <c r="F60" s="2">
+        <v>3</v>
+      </c>
+      <c r="G60" s="2">
+        <v>30</v>
+      </c>
+      <c r="H60" s="2">
+        <v>200049</v>
+      </c>
+      <c r="I60" s="2">
+        <v>3</v>
+      </c>
+      <c r="J60" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K60" s="13"/>
+    </row>
+    <row r="61" spans="2:11">
+      <c r="B61" s="13"/>
+      <c r="C61" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E61" s="2">
+        <v>410020</v>
+      </c>
+      <c r="F61" s="2">
+        <v>4</v>
+      </c>
+      <c r="G61" s="2">
+        <v>15</v>
+      </c>
+      <c r="H61" s="2">
+        <v>200049</v>
+      </c>
+      <c r="I61" s="2">
+        <v>8</v>
+      </c>
+      <c r="J61" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K61" s="13"/>
+    </row>
+    <row r="62" spans="2:11">
+      <c r="B62" s="13"/>
+      <c r="C62" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E62" s="2">
+        <v>410020</v>
+      </c>
+      <c r="F62" s="2">
+        <v>2</v>
+      </c>
+      <c r="G62" s="2">
+        <v>20</v>
+      </c>
+      <c r="H62" s="2">
+        <v>200049</v>
+      </c>
+      <c r="I62" s="2">
+        <v>10</v>
+      </c>
+      <c r="J62" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K62" s="13"/>
+    </row>
+    <row r="63" spans="2:11">
+      <c r="B63" s="13"/>
+      <c r="C63" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E63" s="2">
+        <v>410020</v>
+      </c>
+      <c r="F63" s="2">
+        <v>1</v>
+      </c>
+      <c r="G63" s="2">
+        <v>25</v>
+      </c>
+      <c r="H63" s="2">
+        <v>200049</v>
+      </c>
+      <c r="I63" s="2">
+        <v>14</v>
+      </c>
+      <c r="J63" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K63" s="13"/>
+    </row>
+    <row r="64" spans="2:11">
+      <c r="B64" s="13"/>
+      <c r="C64" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E64" s="2">
+        <v>410020</v>
+      </c>
+      <c r="F64" s="2">
+        <v>3</v>
+      </c>
+      <c r="G64" s="2">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2">
+        <v>200050</v>
+      </c>
+      <c r="I64" s="2">
+        <v>2</v>
+      </c>
+      <c r="J64" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K64" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="B5:K5" xr:uid="{64A6FB2A-E19B-4E43-B710-96FBA0DE8382}"/>
@@ -3356,10 +4122,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="72" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="3" max="16383" man="1"/>
-    <brk id="36" max="16383" man="1"/>
+    <brk id="64" max="10" man="1"/>
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
     <brk id="2" max="1048575" man="1"/>

--- a/Documents/Table_List/08_StageEnemy_Table.xlsx
+++ b/Documents/Table_List/08_StageEnemy_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Documents\GitHub\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6795E6-94DF-4FE3-8051-9B4232CE3B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69DF8ED-8CC1-4F20-9B45-782627BE7F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{93646DBE-5D61-4ADC-ABAD-25A28B629864}"/>
   </bookViews>
@@ -2168,7 +2168,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="K33" sqref="K33"/>
+      <selection pane="bottomRight" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2720,7 +2720,7 @@
         <v>4</v>
       </c>
       <c r="G19" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H19" s="7">
         <v>200036</v>
@@ -2750,7 +2750,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H20" s="7">
         <v>200036</v>
@@ -2786,7 +2786,7 @@
         <v>200036</v>
       </c>
       <c r="I21" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J21" s="2">
         <v>0.5</v>
@@ -2807,7 +2807,7 @@
         <v>410007</v>
       </c>
       <c r="F22" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G22" s="1">
         <v>10</v>
@@ -2816,7 +2816,7 @@
         <v>200036</v>
       </c>
       <c r="I22" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J22" s="2">
         <v>0.5</v>
@@ -2840,7 +2840,7 @@
         <v>2</v>
       </c>
       <c r="G23" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H23" s="7">
         <v>200037</v>
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H24" s="7">
         <v>200037</v>
@@ -2900,7 +2900,7 @@
         <v>3</v>
       </c>
       <c r="G25" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H25" s="7">
         <v>200037</v>
@@ -2927,10 +2927,10 @@
         <v>410009</v>
       </c>
       <c r="F26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H26" s="7">
         <v>200038</v>
@@ -2960,7 +2960,7 @@
         <v>2</v>
       </c>
       <c r="G27" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H27" s="7">
         <v>200038</v>
@@ -2990,7 +2990,7 @@
         <v>3</v>
       </c>
       <c r="G28" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H28" s="7">
         <v>200038</v>
@@ -3017,10 +3017,10 @@
         <v>410009</v>
       </c>
       <c r="F29" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G29" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H29" s="7">
         <v>200038</v>
@@ -3110,7 +3110,7 @@
         <v>2</v>
       </c>
       <c r="G32" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H32" s="7">
         <v>200039</v>
@@ -3200,7 +3200,7 @@
         <v>3</v>
       </c>
       <c r="G35" s="6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H35" s="5">
         <v>200040</v>

--- a/Documents/Table_List/08_StageEnemy_Table.xlsx
+++ b/Documents/Table_List/08_StageEnemy_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Documents\GitHub\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69DF8ED-8CC1-4F20-9B45-782627BE7F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433452F3-86EE-4000-B425-5C84385E5CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{93646DBE-5D61-4ADC-ABAD-25A28B629864}"/>
   </bookViews>
@@ -2165,10 +2165,10 @@
   <dimension ref="B2:K64"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I36" sqref="I36"/>
+      <selection pane="bottomRight" activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3956,7 +3956,7 @@
         <v>200049</v>
       </c>
       <c r="I60" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J60" s="1">
         <v>0.5</v>

--- a/Documents/Table_List/08_StageEnemy_Table.xlsx
+++ b/Documents/Table_List/08_StageEnemy_Table.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Documents\GitHub\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433452F3-86EE-4000-B425-5C84385E5CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1112CEAC-A896-411D-914D-D27E0DC25B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{93646DBE-5D61-4ADC-ABAD-25A28B629864}"/>
+    <workbookView xWindow="2745" yWindow="2085" windowWidth="21600" windowHeight="11385" xr2:uid="{93646DBE-5D61-4ADC-ABAD-25A28B629864}"/>
   </bookViews>
   <sheets>
     <sheet name="StageEnemy_Table" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">StageEnemy_Table!$B$5:$K$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">StageEnemy_Table!$B$5:$K$64</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">StageEnemy_Table!$A$1:$K$65</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -2164,11 +2164,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A6FB2A-E19B-4E43-B710-96FBA0DE8382}">
   <dimension ref="B2:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D39" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="K60" sqref="K60"/>
+      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4084,7 +4084,7 @@
       <c r="K64" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="B5:K5" xr:uid="{64A6FB2A-E19B-4E43-B710-96FBA0DE8382}"/>
+  <autoFilter ref="B5:K64" xr:uid="{64A6FB2A-E19B-4E43-B710-96FBA0DE8382}"/>
   <mergeCells count="10">
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
